--- a/biology/Botanique/Salix_calliantha/Salix_calliantha.xlsx
+++ b/biology/Botanique/Salix_calliantha/Salix_calliantha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Salix calliantha est une espèce de saule utilisé en vannerie.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Salix x callientha Kern
 Salix purpurea subsp. purpurea Jos. Kern</t>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Salix calliantha, le Saule rouge, est un hybride indigène de Salix purpurea par Salix daphnoides. C'est un grand arbuste aux rameaux pruineux et au feuillage fin qui peut atteindre 7 m de haut. Il porte des chatons de taille moyenne. Ses feuilles mesurent une dizaine de centimètres de long et la couleur rouge de son écorce, quand elle jeune, est appréciée par les vanniers. Il supporte assez bien le sec.
-La floraison a lieu en février-mars[1].
+La floraison a lieu en février-mars.
 </t>
         </is>
       </c>
